--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A87DC-5545-41AA-802C-8435F98EF942}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7E247-E63D-41EF-AFAD-0E21DBA573F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15615" yWindow="3930" windowWidth="21855" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>TextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,67 +150,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhihi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>RawType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaInfoID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockTypeIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SpeedBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhihi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>RawType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormulaInfoID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockTypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,25 +615,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -659,16 +642,16 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -676,19 +659,19 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
@@ -697,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -724,7 +707,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,10 +726,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -757,46 +740,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +779,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,19 +794,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,16 +814,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -869,17 +838,17 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -887,7 +856,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -900,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,10 +881,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,7 +906,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,24 +919,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -978,10 +947,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -992,10 +961,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1006,10 +975,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7E247-E63D-41EF-AFAD-0E21DBA573F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41420AA8-6D58-4E60-BA12-6E3CEBD2339B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15615" yWindow="3930" windowWidth="21855" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
-    <sheet name="TextData_FunctionBlock" sheetId="2" r:id="rId2"/>
-    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId3"/>
-    <sheet name="FunctionBlock_Manufacture" sheetId="3" r:id="rId4"/>
-    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId5"/>
-    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId6"/>
-    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId7"/>
+    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId2"/>
+    <sheet name="FunctionBlock_Manufacture" sheetId="3" r:id="rId3"/>
+    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
+    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
+    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
+    <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,24 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
-  <si>
-    <t>TextID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PlugSlotNumBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,143 +49,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>StaffSlotNumBase</t>
+  </si>
+  <si>
+    <t>OutputSlotNumBase</t>
+  </si>
+  <si>
+    <t>InputSlotNumBase</t>
+  </si>
+  <si>
+    <t>sssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManufactureID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScienceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaintenanceBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyConsumptionBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhihi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>RawType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaInfoID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockTypeIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBase</t>
+  </si>
+  <si>
+    <t>PreLevelBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaffSlotNumBase</t>
-  </si>
-  <si>
-    <t>OutputSlotNumBase</t>
-  </si>
-  <si>
-    <t>InputSlotNumBase</t>
-  </si>
-  <si>
-    <t>ssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManufactureID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manufacture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RawID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScienceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaintenanceBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyConsumptionBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhihi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>RawType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormulaInfoID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockTypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedBase</t>
+  </si>
+  <si>
+    <t>AreaMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaDetailDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPDataJsonIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectMaterialList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaborID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InherentLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -251,74 +266,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -335,7 +282,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -593,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +552,7 @@
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
@@ -613,74 +560,71 @@
     <col min="14" max="16" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -693,6 +637,50 @@
       </c>
       <c r="M2" s="1">
         <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -703,33 +691,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A46918-95E4-419E-B9A8-71B0DBAA1118}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -739,91 +760,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="21.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -833,30 +821,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -866,47 +900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -919,76 +917,98 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92EB04B-70C3-4FD5-AAD0-20125F6BC70D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41420AA8-6D58-4E60-BA12-6E3CEBD2339B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7288901-4972-4C52-BFA8-61D814320473}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15240" yWindow="3900" windowWidth="12735" windowHeight="13110" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
     <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
     <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
-    <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,16 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlugSlotNumBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,15 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StaffSlotNumBase</t>
-  </si>
-  <si>
-    <t>OutputSlotNumBase</t>
-  </si>
-  <si>
-    <t>InputSlotNumBase</t>
-  </si>
-  <si>
     <t>sssd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,11 +193,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LaborID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InherentLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,6 +260,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -282,7 +344,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -540,146 +602,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="16" width="15.625" customWidth="1"/>
+    <col min="10" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
         <v>100</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
         <v>111</v>
       </c>
     </row>
@@ -692,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,54 +736,48 @@
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,35 +799,45 @@
     <col min="1" max="4" width="21.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
@@ -808,11 +845,20 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -823,34 +869,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +923,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,25 +934,41 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2">
         <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +982,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -917,98 +995,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92EB04B-70C3-4FD5-AAD0-20125F6BC70D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7288901-4972-4C52-BFA8-61D814320473}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D679DD0-ACD1-4C90-8F77-FA814912F159}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15240" yWindow="3900" windowWidth="12735" windowHeight="13110" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,18 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ManufactureID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +194,26 @@
   </si>
   <si>
     <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc_101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,15 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.375" style="1" bestFit="1" customWidth="1"/>
@@ -622,34 +631,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -657,22 +666,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
         <v>100</v>
@@ -689,22 +698,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
         <v>100</v>
@@ -742,22 +751,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -768,16 +777,16 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -807,28 +816,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -845,16 +854,16 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -883,19 +892,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -903,16 +912,16 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -925,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,19 +948,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -959,16 +968,16 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -995,24 +1004,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1023,10 +1032,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1037,10 +1046,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1051,10 +1060,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D679DD0-ACD1-4C90-8F77-FA814912F159}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F090C-904C-45C7-B6AF-FFBDF34BF968}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,22 @@
     <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
     <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +219,10 @@
   </si>
   <si>
     <t>FunctionBlockDesc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,-2,-2,-2,-2,-2;-2,100,100,100,-1,-1;-2,100,-1,-1,-1,-1;-2,100,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,9 +266,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,7 +749,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -808,7 +820,8 @@
     <col min="1" max="4" width="21.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="84.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
@@ -859,8 +872,8 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>34</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F090C-904C-45C7-B6AF-FFBDF34BF968}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DCA42E-B9A4-4775-9FD3-47E8E0D645EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
-    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId2"/>
-    <sheet name="FunctionBlock_Manufacture" sheetId="3" r:id="rId3"/>
+    <sheet name="FunctionBlock_Manufacture" sheetId="3" r:id="rId2"/>
+    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId3"/>
     <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
     <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
     <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>-2,-2,-2,-2,-2,-2;-2,100,100,100,-1,-1;-2,100,-1,-1,-1,-1;-2,100,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +249,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +291,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -625,7 +646,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,41 +656,42 @@
     <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -745,74 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,29 +786,29 @@
     <col min="11" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -876,7 +835,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -889,45 +848,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1004,28 +1030,28 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DCA42E-B9A4-4775-9FD3-47E8E0D645EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629190BB-E8F8-4AEA-9273-82BC0C397589}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,11 +222,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-2,-2,-2,-2,-2,-2;-2,100,100,100,-1,-1;-2,100,-1,-1,-1,-1;-2,100,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,101,-2,-2,-2,-2;-2,100,100,100,-1,-1;-2,100,-1,-1,-1,-1;-2,100,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629190BB-E8F8-4AEA-9273-82BC0C397589}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB577E-600F-44C6-9D50-05EF3DE17B1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB577E-600F-44C6-9D50-05EF3DE17B1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F05C9-F966-4EEC-B6BA-51DBF0965389}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1560" windowWidth="23610" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>101,101,-2,-2,-2,-2;-2,100,100,100,-1,-1;-2,100,-1,-1,-1,-1;-2,100,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +650,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -756,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +775,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,11 +829,11 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>48</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F05C9-F966-4EEC-B6BA-51DBF0965389}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1A33F-FA5D-481D-9E47-637F1C4613B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1560" windowWidth="23610" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -226,11 +226,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101,101,-2,-2,-2,-2;-2,100,100,100,-1,-1;-2,100,-1,-1,-1,-1;-2,100,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,101;0,2,-2;0,3,-2;0,4,-2;0,5,-2;1,0,100;1,1,100;1,2,-2;1,3,-1;1,4,-1;1,5,-1;2,0,-1;2,1,-1;2,2,-1;2,3,-1;2,4,-1;2,5,-1;3,0,-1;3,1,-1;3,2,-1;3,3,-1;3,4,-1;3,5,-1;4,0,-1;4,1,-1;4,2,-1;4,3,-1;4,4,-1;4,5,-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,74 +305,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,7 +321,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -774,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,7 +715,7 @@
     <col min="1" max="4" width="21.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="84.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="134.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
@@ -833,10 +765,10 @@
         <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>47</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1A33F-FA5D-481D-9E47-637F1C4613B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886B94F-CE44-4300-83FD-DCFD2F90273D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,7 +230,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,101;0,2,-2;0,3,-2;0,4,-2;0,5,-2;1,0,100;1,1,100;1,2,-2;1,3,-1;1,4,-1;1,5,-1;2,0,-1;2,1,-1;2,2,-1;2,3,-1;2,4,-1;2,5,-1;3,0,-1;3,1,-1;3,2,-1;3,3,-1;3,4,-1;3,5,-1;4,0,-1;4,1,-1;4,2,-1;4,3,-1;4,4,-1;4,5,-1</t>
+    <t>0,0,100;1,0,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,-2,-2,-2,-2,-2;-1,-1,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2;-2,-2,-2,-2,-2,-2;-2,-2,-2,-2,-2,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,100;1,0,101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,6 +317,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -321,7 +401,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -704,25 +784,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="134.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="79.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -745,10 +826,13 @@
         <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -761,21 +845,21 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -786,10 +870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,10 +883,11 @@
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -819,10 +904,13 @@
         <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -838,7 +926,10 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -850,10 +941,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,10 +953,11 @@
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -879,10 +971,13 @@
         <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -895,7 +990,10 @@
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -907,38 +1005,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -951,7 +1054,10 @@
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -966,7 +1072,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886B94F-CE44-4300-83FD-DCFD2F90273D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4E0ED-6B01-45CB-B02B-0D96565EE604}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4E0ED-6B01-45CB-B02B-0D96565EE604}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74851532-6BE3-4F08-B53F-712B9E7E88EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12255" yWindow="6720" windowWidth="18900" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="A10:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74851532-6BE3-4F08-B53F-712B9E7E88EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45608E6-5305-46A3-ACFC-173CC3FF30B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12255" yWindow="6720" windowWidth="18900" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>1,3,100;1,0,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A10:I17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +683,7 @@
     <col min="11" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -710,8 +714,11 @@
       <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -742,8 +749,11 @@
       <c r="J2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -772,6 +782,9 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -786,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45608E6-5305-46A3-ACFC-173CC3FF30B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE1634-B6F0-4FEF-8BA6-B5FFC3D0F4E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1125" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,18 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionBlockName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/Material/apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockName_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +231,34 @@
   </si>
   <si>
     <t>DistrictData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Background/FBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Icon/cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Icon/carrot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,27 +675,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="41.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -691,34 +703,37 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -726,34 +741,37 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
       <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
       <c r="K2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -761,30 +779,33 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
       <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>100</v>
-      </c>
       <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -821,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -836,13 +857,13 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -850,7 +871,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -862,16 +883,16 @@
         <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -908,19 +929,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -931,19 +952,19 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -975,19 +996,19 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,19 +1016,19 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1039,19 +1060,19 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1059,19 +1080,19 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE1634-B6F0-4FEF-8BA6-B5FFC3D0F4E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C9A75-C64C-4DC1-A8C8-F3FDE3817D1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1125" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
     <sheet name="FunctionBlock_Manufacture" sheetId="3" r:id="rId2"/>
-    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId3"/>
-    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
-    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
-    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
+    <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId3"/>
+    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId4"/>
+    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId5"/>
+    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId6"/>
+    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>ssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jhihi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -151,17 +144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>AreaMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AreaDetailDefault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockName_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,100;1,0,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OriginArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +237,86 @@
   </si>
   <si>
     <t>SpriteOutput/FunctionBlock/Icon/carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaborID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼厂Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼厂LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼厂LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockTypeName_Manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockTypeName_Raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockTypeName_Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockTypeName_Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockTypeName_Labor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级劳动力区块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoodConsumBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaintainBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManufactType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smelt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,72 +749,84 @@
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="79.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -764,37 +834,46 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
-        <v>100</v>
-      </c>
-      <c r="L2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -802,10 +881,19 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>100</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+      <c r="O3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -818,81 +906,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="79.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -903,11 +982,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43BADE-AC93-4106-A66A-B4C7DC2CE449}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -916,55 +1068,34 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -973,12 +1104,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -986,49 +1117,28 @@
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1037,12 +1147,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1050,49 +1160,28 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2">
         <v>100</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1101,90 +1190,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"BlockTypeDesc_"&amp;A2</f>
+        <v>BlockTypeDesc_Manufacture</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">"BlockTypeDesc_"&amp;A3</f>
+        <v>BlockTypeDesc_Raw</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_Science</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_Energy</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_Labor</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C9A75-C64C-4DC1-A8C8-F3FDE3817D1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590E1E0-A9CA-4045-AE27-556EE3BCBBEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>ssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,9 @@
   <si>
     <t>Smelt</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufactory_InherentLevel_Smelt_Level_1</t>
   </si>
 </sst>
 </file>
@@ -908,13 +911,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
@@ -959,7 +964,7 @@
         <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -985,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43BADE-AC93-4106-A66A-B4C7DC2CE449}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590E1E0-A9CA-4045-AE27-556EE3BCBBEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C396EBD-AC65-4AFB-B52A-CBB9E7235310}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1755" windowWidth="20745" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>ssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>Manufactory_InherentLevel_Smelt_Level_1</t>
+  </si>
+  <si>
+    <t>WorkerBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +743,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -909,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -920,14 +924,14 @@
     <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -950,10 +954,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -975,7 +982,10 @@
       <c r="G2" s="1">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C396EBD-AC65-4AFB-B52A-CBB9E7235310}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F68F5-F219-4403-B789-4502D3D9F17A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1755" windowWidth="20745" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1035" windowWidth="20745" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43BADE-AC93-4106-A66A-B4C7DC2CE449}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F68F5-F219-4403-B789-4502D3D9F17A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D919AB7-CE76-42E3-A1CB-848772A47619}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1035" windowWidth="20745" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>ssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,14 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/FunctionBlock/Icon/cake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/Icon/carrot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LaborID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +316,10 @@
   </si>
   <si>
     <t>WorkerBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Icon/BlockIcon_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>28</v>
@@ -815,7 +811,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -824,7 +820,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>36</v>
@@ -862,7 +858,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -871,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>37</v>
@@ -936,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>31</v>
@@ -954,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -965,13 +961,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -1000,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43BADE-AC93-4106-A66A-B4C7DC2CE449}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -1027,16 +1023,16 @@
         <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1240,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="str">
         <f>"BlockTypeDesc_"&amp;A2</f>
@@ -1255,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">"BlockTypeDesc_"&amp;A3</f>
@@ -1270,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1285,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1297,17 +1293,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>BlockTypeDesc_Labor</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D919AB7-CE76-42E3-A1CB-848772A47619}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFFD67-E290-4E9E-8DC3-A4805B3AB4C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16680" yWindow="7290" windowWidth="22035" windowHeight="13110" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
-    <sheet name="FunctionBlock_Manufacture" sheetId="3" r:id="rId2"/>
+    <sheet name="FunctionBlock_Industry" sheetId="3" r:id="rId2"/>
     <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId3"/>
     <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId4"/>
     <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId5"/>
     <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId6"/>
     <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId7"/>
+    <sheet name="FunctionBlockSubTypeData" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,15 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
-  <si>
-    <t>ssss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManufactureID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RawID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,30 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlockTypeName_Manufacture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockTypeName_Raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockTypeName_Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockTypeName_Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockTypeName_Labor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初级劳动力区块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ManufactType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Smelt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +281,118 @@
   </si>
   <si>
     <t>SpriteOutput/FunctionBlock/Icon/BlockIcon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agriculture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alchemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Agriculture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Alchemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Labor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/SubType_Light_Industory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,167 +809,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="41.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="79.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="79.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1">
-        <v>100</v>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1">
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1">
         <v>100</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -912,7 +996,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,31 +1013,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -961,13 +1045,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -982,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1014,25 +1098,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1083,16 +1167,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1216,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1146,10 +1230,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1175,13 +1259,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,7 +1273,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1203,107 +1287,284 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="1" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D6" si="0">"BlockTypeName_"&amp;A2</f>
+        <v>BlockTypeName_Industry</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A2</f>
+        <v>BlockTypeDesc_Industry</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeName_Agriculture</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E8" si="1">"BlockTypeDesc_"&amp;A3</f>
+        <v>BlockTypeDesc_Agriculture</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeName_Science</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeDesc_Science</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeName_Alchemy</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeDesc_Alchemy</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BlockTypeName_Labor</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeDesc_Labor</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ref="D7" si="2">"BlockTypeName_"&amp;A7</f>
+        <v>BlockTypeName_Energy</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" ref="E7" si="3">"BlockTypeDesc_"&amp;A7</f>
+        <v>BlockTypeDesc_Energy</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>"BlockTypeName_"&amp;A8</f>
+        <v>BlockTypeName_Unique</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeDesc_Unique</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE0B1-E5A7-49F4-8F8D-84A06ACFFF60}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"BlockTypeDesc_"&amp;A2</f>
-        <v>BlockTypeDesc_Manufacture</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C6" si="0">"BlockTypeDesc_"&amp;A3</f>
-        <v>BlockTypeDesc_Raw</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeDesc_Science</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeDesc_Energy</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeDesc_Labor</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>"BlockSubTypeName_"&amp;A2</f>
+        <v>BlockSubTypeName_Manufacture</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>"BlockSubTypeDesc_"&amp;A2</f>
+        <v>BlockSubTypeDesc_Manufacture</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFFD67-E290-4E9E-8DC3-A4805B3AB4C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77672ED2-4C8E-43A3-8B30-FE53EAE5555E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16680" yWindow="7290" windowWidth="22035" windowHeight="13110" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="26310" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -995,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77672ED2-4C8E-43A3-8B30-FE53EAE5555E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB91E36-E0DD-47E9-8EC8-FDCFE5A7F766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="26310" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1440" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
-    <sheet name="FunctionBlock_Industry" sheetId="3" r:id="rId2"/>
-    <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId3"/>
-    <sheet name="FunctionBlock_Raw" sheetId="5" r:id="rId4"/>
-    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId5"/>
-    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId6"/>
-    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId7"/>
-    <sheet name="FunctionBlockSubTypeData" sheetId="9" r:id="rId8"/>
+    <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId2"/>
+    <sheet name="FunctionBlock_Industry" sheetId="3" r:id="rId3"/>
+    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
+    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
+    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
+    <sheet name="FunctionBlockSubTypeData" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RawID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScienceID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +102,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>RawType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FormulaInfoID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CollectMaterialList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InherentLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockName_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OriginArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冶炼厂LV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Smelt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Manufactory_InherentLevel_Smelt_Level_1</t>
   </si>
   <si>
@@ -394,6 +365,30 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufactory_InherentLevel_Smelt_Level_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,52 +832,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -890,25 +885,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -920,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -940,43 +935,43 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1">
         <v>100</v>
@@ -993,96 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43BADE-AC93-4106-A66A-B4C7DC2CE449}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,25 +1009,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1125,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1141,6 +1051,111 @@
       </c>
       <c r="G2" s="1">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1151,56 +1166,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1217,13 +1182,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1231,10 +1196,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1260,13 +1225,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1239,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1286,7 +1251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1308,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1323,15 +1288,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1345,18 +1310,18 @@
         <v>BlockTypeDesc_Industry</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1370,18 +1335,18 @@
         <v>BlockTypeDesc_Agriculture</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -1395,18 +1360,18 @@
         <v>BlockTypeDesc_Science</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -1420,18 +1385,18 @@
         <v>BlockTypeDesc_Alchemy</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -1445,18 +1410,18 @@
         <v>BlockTypeDesc_Labor</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -1470,18 +1435,18 @@
         <v>BlockTypeDesc_Energy</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -1495,10 +1460,10 @@
         <v>BlockTypeDesc_Unique</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1508,12 +1473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE0B1-E5A7-49F4-8F8D-84A06ACFFF60}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,13 +1493,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1551,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1565,11 +1530,34 @@
         <v>BlockSubTypeDesc_Manufacture</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"BlockSubTypeName_"&amp;A3</f>
+        <v>BlockSubTypeName_Raw</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>"BlockSubTypeDesc_"&amp;A3</f>
+        <v>BlockSubTypeDesc_Raw</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB91E36-E0DD-47E9-8EC8-FDCFE5A7F766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D774DF1C-5947-4287-BFE7-188F72ED27FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1440" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/FunctionBlock/Icon/BlockIcon_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +385,14 @@
   </si>
   <si>
     <t>挖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Icon/Block_BG_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Icon/Block_BG_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +812,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -894,7 +898,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -903,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -935,7 +939,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -944,7 +948,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -953,10 +957,10 @@
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1">
         <v>101</v>
@@ -1082,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>42</v>
@@ -1137,10 +1141,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1273,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1288,15 +1292,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1310,18 +1314,18 @@
         <v>BlockTypeDesc_Industry</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1335,10 +1339,10 @@
         <v>BlockTypeDesc_Agriculture</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -1360,18 +1364,18 @@
         <v>BlockTypeDesc_Science</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -1385,10 +1389,10 @@
         <v>BlockTypeDesc_Alchemy</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,7 +1400,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -1410,10 +1414,10 @@
         <v>BlockTypeDesc_Labor</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1421,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -1435,18 +1439,18 @@
         <v>BlockTypeDesc_Energy</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -1460,10 +1464,10 @@
         <v>BlockTypeDesc_Unique</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1493,13 +1497,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1516,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1530,15 +1534,15 @@
         <v>BlockSubTypeDesc_Manufacture</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1552,7 +1556,7 @@
         <v>BlockSubTypeDesc_Raw</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D774DF1C-5947-4287-BFE7-188F72ED27FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B70C47-27DF-412D-94ED-FC7430CD7C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1065" yWindow="1500" windowWidth="26295" windowHeight="13635" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Labor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初级劳动力区块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SubType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,22 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agriculture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alchemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SubTypeList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,30 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Agriculture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Alchemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Labor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/TabIcon_Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轻工业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +337,50 @@
   </si>
   <si>
     <t>SpriteOutput/FunctionBlock/Icon/Block_BG_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_Arms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_Industry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,52 +824,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -889,25 +877,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -919,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -939,28 +927,28 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1">
         <v>101</v>
@@ -969,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1">
         <v>100</v>
@@ -1013,25 +1001,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1086,28 +1074,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1115,10 +1103,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1141,10 +1129,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1189,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,10 +1188,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1229,13 +1217,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1257,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1292,182 +1280,157 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D6" si="0">"BlockTypeName_"&amp;A2</f>
-        <v>BlockTypeName_Industry</v>
+        <f t="shared" ref="D2" si="0">"BlockTypeName_"&amp;A2</f>
+        <v>BlockTypeName_Public</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>"BlockTypeDesc_"&amp;A2</f>
-        <v>BlockTypeDesc_Industry</v>
+        <v>BlockTypeDesc_Public</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeName_Agriculture</v>
+        <f t="shared" ref="D3:D4" si="1">"BlockTypeName_"&amp;A3</f>
+        <v>BlockTypeName_Industry</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E8" si="1">"BlockTypeDesc_"&amp;A3</f>
-        <v>BlockTypeDesc_Agriculture</v>
+        <f>"BlockTypeDesc_"&amp;A3</f>
+        <v>BlockTypeDesc_Industry</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeName_Science</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_Research</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BlockTypeDesc_Science</v>
+        <f t="shared" ref="E4:E7" si="2">"BlockTypeDesc_"&amp;A4</f>
+        <v>BlockTypeDesc_Research</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeName_Alchemy</v>
+        <f t="shared" ref="D5" si="3">"BlockTypeName_"&amp;A5</f>
+        <v>BlockTypeName_Energy</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BlockTypeDesc_Alchemy</v>
+        <f t="shared" ref="E5:E6" si="4">"BlockTypeDesc_"&amp;A5</f>
+        <v>BlockTypeDesc_Energy</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BlockTypeName_Labor</v>
+        <f>"BlockTypeName_"&amp;A6</f>
+        <v>BlockTypeName_Arms</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BlockTypeDesc_Labor</v>
+        <f t="shared" si="4"/>
+        <v>BlockTypeDesc_Arms</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" ref="D7" si="2">"BlockTypeName_"&amp;A7</f>
-        <v>BlockTypeName_Energy</v>
+        <f>"BlockTypeName_"&amp;A7</f>
+        <v>BlockTypeName_Unique</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" ref="E7" si="3">"BlockTypeDesc_"&amp;A7</f>
-        <v>BlockTypeDesc_Energy</v>
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_Unique</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A8</f>
-        <v>BlockTypeName_Unique</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BlockTypeDesc_Unique</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1445,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1497,13 +1460,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1520,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1534,15 +1497,15 @@
         <v>BlockSubTypeDesc_Manufacture</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1556,7 +1519,7 @@
         <v>BlockSubTypeDesc_Raw</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B70C47-27DF-412D-94ED-FC7430CD7C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F3AAE4-4E4B-4D5E-8F7E-7EF02408EABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1065" yWindow="1500" windowWidth="26295" windowHeight="13635" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="3315" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -157,18 +157,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OriginArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-2,-2,-2,-2,-2,-2;-1,-1,-1,-1,-1,-1;-2,-2,-2,-2,-2,-2;-2,-2,-2,-2,-2,-2;-2,-2,-2,-2,-2,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,3,100;1,0,101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,6 +373,14 @@
   </si>
   <si>
     <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,-2,-2,-2,-2;-1,-1,-1,-1,-1;-2,-2,-2,-2,-2;-2,-2,-2,-2,-2;-2,-2,-2,-2,-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,16 +830,16 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>20</v>
@@ -848,19 +848,19 @@
         <v>17</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>21</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -877,16 +877,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -907,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -927,16 +927,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>29</v>
@@ -945,10 +945,10 @@
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1">
         <v>101</v>
@@ -957,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="O3" s="1">
         <v>100</v>
@@ -984,7 +984,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -1010,16 +1010,16 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1074,10 +1074,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>24</v>
@@ -1092,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1103,10 +1103,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1129,10 +1129,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1280,15 +1280,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>BlockTypeDesc_Public</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1327,18 +1327,18 @@
         <v>BlockTypeDesc_Industry</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -1352,10 +1352,10 @@
         <v>BlockTypeDesc_Research</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -1377,18 +1377,18 @@
         <v>BlockTypeDesc_Energy</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>BlockTypeDesc_Arms</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>BlockTypeDesc_Unique</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1460,13 +1460,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1497,15 +1497,15 @@
         <v>BlockSubTypeDesc_Manufacture</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>BlockSubTypeDesc_Raw</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F3AAE4-4E4B-4D5E-8F7E-7EF02408EABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60F200-6823-4ABD-97D7-645479CFD29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="3315" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="1590" windowWidth="27420" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
     <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
     <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
-    <sheet name="FunctionBlockSubTypeData" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Manufacture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SubType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,26 +247,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SubTypeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DefaultShow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Manufacture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Industry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,14 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轻工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/TypeIcon/SubType_Light_Industory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,19 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Manufactory_InherentLevel_Smelt_Level_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,74 +410,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -539,7 +426,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -797,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,163 +699,153 @@
     <col min="6" max="6" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="79.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="79.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
       </c>
       <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1">
         <v>1</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
       </c>
-      <c r="P2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="I3" s="1">
+        <v>101</v>
       </c>
       <c r="J3" s="1">
-        <v>101</v>
-      </c>
-      <c r="K3" s="1">
         <v>1</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
       </c>
       <c r="O3" s="1">
-        <v>100</v>
-      </c>
-      <c r="P3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1001,25 +878,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1074,28 +951,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1103,10 +980,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1129,10 +1006,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1174,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,10 +1065,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1217,13 +1094,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1231,7 +1108,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1245,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,216 +1134,17 @@
     <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="53.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2" si="0">"BlockTypeName_"&amp;A2</f>
-        <v>BlockTypeName_Public</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A2</f>
-        <v>BlockTypeDesc_Public</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D4" si="1">"BlockTypeName_"&amp;A3</f>
-        <v>BlockTypeName_Industry</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A3</f>
-        <v>BlockTypeDesc_Industry</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BlockTypeName_Research</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E7" si="2">"BlockTypeDesc_"&amp;A4</f>
-        <v>BlockTypeDesc_Research</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5" si="3">"BlockTypeName_"&amp;A5</f>
-        <v>BlockTypeName_Energy</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E6" si="4">"BlockTypeDesc_"&amp;A5</f>
-        <v>BlockTypeDesc_Energy</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A6</f>
-        <v>BlockTypeName_Arms</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BlockTypeDesc_Arms</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A7</f>
-        <v>BlockTypeName_Unique</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_Unique</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE0B1-E5A7-49F4-8F8D-84A06ACFFF60}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1480,46 +1158,134 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>"BlockSubTypeName_"&amp;A2</f>
-        <v>BlockSubTypeName_Manufacture</v>
+        <f t="shared" ref="D2" si="0">"BlockTypeName_"&amp;A2</f>
+        <v>BlockTypeName_Public</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>"BlockSubTypeDesc_"&amp;A2</f>
-        <v>BlockSubTypeDesc_Manufacture</v>
+        <f>"BlockTypeDesc_"&amp;A2</f>
+        <v>BlockTypeDesc_Public</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>"BlockSubTypeName_"&amp;A3</f>
-        <v>BlockSubTypeName_Raw</v>
+        <f t="shared" ref="D3:D4" si="1">"BlockTypeName_"&amp;A3</f>
+        <v>BlockTypeName_Industry</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>"BlockSubTypeDesc_"&amp;A3</f>
-        <v>BlockSubTypeDesc_Raw</v>
+        <f>"BlockTypeDesc_"&amp;A3</f>
+        <v>BlockTypeDesc_Industry</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_Research</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E7" si="2">"BlockTypeDesc_"&amp;A4</f>
+        <v>BlockTypeDesc_Research</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5" si="3">"BlockTypeName_"&amp;A5</f>
+        <v>BlockTypeName_Energy</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" ref="E5:E6" si="4">"BlockTypeDesc_"&amp;A5</f>
+        <v>BlockTypeDesc_Energy</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>"BlockTypeName_"&amp;A6</f>
+        <v>BlockTypeName_Arms</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BlockTypeDesc_Arms</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>"BlockTypeName_"&amp;A7</f>
+        <v>BlockTypeName_Unique</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_Unique</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60F200-6823-4ABD-97D7-645479CFD29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08186C-3CD9-4D89-82B9-0FCF65F50402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1590" windowWidth="27420" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
-    <sheet name="FunctionBlock_Labor" sheetId="8" r:id="rId2"/>
-    <sheet name="FunctionBlock_Industry" sheetId="3" r:id="rId3"/>
-    <sheet name="FunctionBlock_Science" sheetId="6" r:id="rId4"/>
-    <sheet name="FunctionBlock_Energy" sheetId="7" r:id="rId5"/>
-    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId6"/>
+    <sheet name="FunctionBlock_Industry" sheetId="3" r:id="rId2"/>
+    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,26 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScienceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnergyID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaintenanceBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,108 +64,115 @@
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
+  </si>
+  <si>
+    <t>FormulaInfoID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockTypeIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBase</t>
+  </si>
+  <si>
+    <t>PreLevelBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaDetailDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPDataJsonIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InherentLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,100;1,0,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Background/FBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>FormulaInfoID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockTypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedBase</t>
-  </si>
-  <si>
-    <t>PreLevelBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaDetailDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPDataJsonIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InherentLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockName_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockName_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockDesc_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionBlockDesc_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,100;1,0,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/FunctionBlock/Background/FBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaborID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼厂Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼厂LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufactory_InherentLevel_Smelt_Level_1</t>
+  </si>
+  <si>
+    <t>WorkerBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,78 +180,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冶炼厂Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冶炼厂LV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级劳动力区块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasePopulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FoodConsumBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaintainBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyBase</t>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Manufactory_InherentLevel_Smelt_Level_1</t>
-  </si>
-  <si>
-    <t>WorkerBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,14 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Manufactory_InherentLevel_Smelt_Level_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpriteOutput/FunctionBlock/Icon/Block_BG_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +281,92 @@
   </si>
   <si>
     <t>-2,-2,-2,-2,-2;-1,-1,-1,-1,-1;-2,-2,-2,-2,-2;-2,-2,-2,-2,-2;-2,-2,-2,-2,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵列扫描器</t>
+  </si>
+  <si>
+    <t>反馈天线</t>
+  </si>
+  <si>
+    <t>发射器协调室</t>
+  </si>
+  <si>
+    <t>成像分析光度计</t>
+  </si>
+  <si>
+    <t>偏导护盾投射器</t>
+  </si>
+  <si>
+    <t>虹普分析仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RainbowAnalyzer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayScanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeedbackAntenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransmitterCoordination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImagingAnalysisPhotometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeflectorShieldProjector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练室</t>
+  </si>
+  <si>
+    <t>休息室</t>
+  </si>
+  <si>
+    <t>货舱</t>
+  </si>
+  <si>
+    <t>娱乐吧台</t>
+  </si>
+  <si>
+    <t>光合舱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrainingRoom </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntertainmentBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhotosyntheticTank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命保障系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeSupportSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,49 +741,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -760,25 +791,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -787,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1">
         <v>100</v>
@@ -807,25 +838,25 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1">
         <v>101</v>
@@ -834,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N3" s="1">
         <v>100</v>
@@ -857,84 +888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43BADE-AC93-4106-A66A-B4C7DC2CE449}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,28 +909,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -980,10 +938,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1006,10 +964,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1034,105 +992,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1141,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1158,10 +1031,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1175,15 +1048,15 @@
         <v>BlockTypeDesc_Public</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1197,15 +1070,15 @@
         <v>BlockTypeDesc_Industry</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -1215,19 +1088,19 @@
         <v>BlockTypeName_Research</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E7" si="2">"BlockTypeDesc_"&amp;A4</f>
+        <f t="shared" ref="E4:E18" si="2">"BlockTypeDesc_"&amp;A4</f>
         <v>BlockTypeDesc_Research</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -1241,15 +1114,15 @@
         <v>BlockTypeDesc_Energy</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -1263,15 +1136,15 @@
         <v>BlockTypeDesc_Arms</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
@@ -1285,7 +1158,271 @@
         <v>BlockTypeDesc_Unique</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>"BlockTypeName_"&amp;A8</f>
+        <v>BlockTypeName_RainbowAnalyzer</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_RainbowAnalyzer</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>"BlockTypeName_"&amp;A9</f>
+        <v>BlockTypeName_ArrayScanner</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_ArrayScanner</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ref="D10:D19" si="5">"BlockTypeName_"&amp;A10</f>
+        <v>BlockTypeName_FeedbackAntenna</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_FeedbackAntenna</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_TransmitterCoordination</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_TransmitterCoordination</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_ImagingAnalysisPhotometer</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_ImagingAnalysisPhotometer</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_DeflectorShieldProjector</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_DeflectorShieldProjector</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">BlockTypeName_TrainingRoom </v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">BlockTypeDesc_TrainingRoom </v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_Lounge</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_Lounge</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_Cargo</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_Cargo</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_EntertainmentBar</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_EntertainmentBar</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_PhotosyntheticTank</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BlockTypeDesc_PhotosyntheticTank</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BlockTypeName_lifeSupportSystem</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A19</f>
+        <v>BlockTypeDesc_lifeSupportSystem</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08186C-3CD9-4D89-82B9-0FCF65F50402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF47969-524A-4736-8744-E72E7BC823C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
-    <sheet name="FunctionBlock_Industry" sheetId="3" r:id="rId2"/>
-    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId3"/>
+    <sheet name="FunctionBlockTypeData" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,25 +50,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaintenanceBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyConsumptionBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>FormulaInfoID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,13 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionBlockTypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedBase</t>
-  </si>
-  <si>
     <t>PreLevelBlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXPDataJsonIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InherentLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockName_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DistrictData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpriteOutput/FunctionBlock/Background/FBG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,77 +117,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>冶炼厂LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冶炼厂Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冶炼厂LV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manufactory_InherentLevel_Smelt_Level_1</t>
-  </si>
-  <si>
-    <t>WorkerBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DefaultShow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挖矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Manufactory_InherentLevel_Smelt_Level_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpriteOutput/FunctionBlock/Icon/Block_BG_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,30 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpriteOutput/FunctionBlock/TypeIcon/BlockType_Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,7 +251,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lifeSupportSystem</t>
+    <t>BlockConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockConfig_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockConfig_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeSupportSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控分析室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainControlAnalysisRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空对接环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DockingRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DismantlingRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementCapsule</t>
+  </si>
+  <si>
+    <t>ElementCapsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchLaboratory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyStorageUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactionTank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湮灭反应堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnihilationReactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却固化堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooledReactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载缓存引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverloadEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振分束器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResonanceBeamSplitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperatingOffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockName_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionBlockDesc_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockConfig_1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,154 +742,163 @@
     <col min="6" max="6" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="79.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="79.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="1">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1">
-        <v>101</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="1">
-        <v>100</v>
-      </c>
-      <c r="O3" s="1">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -888,116 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>101</v>
-      </c>
-      <c r="F3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1031,24 +947,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2" si="0">"BlockTypeName_"&amp;A2</f>
-        <v>BlockTypeName_Public</v>
+        <f>"BlockTypeName_"&amp;A2</f>
+        <v>BlockTypeName_RainbowAnalyzer</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A2</f>
-        <v>BlockTypeDesc_Public</v>
+        <f t="shared" ref="E2:E12" si="0">"BlockTypeDesc_"&amp;A2</f>
+        <v>BlockTypeDesc_RainbowAnalyzer</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,373 +972,505 @@
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D4" si="1">"BlockTypeName_"&amp;A3</f>
-        <v>BlockTypeName_Industry</v>
+        <f>"BlockTypeName_"&amp;A3</f>
+        <v>BlockTypeName_ArrayScanner</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A3</f>
-        <v>BlockTypeDesc_Industry</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_ArrayScanner</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BlockTypeName_Research</v>
+        <f t="shared" ref="D4:D25" si="1">"BlockTypeName_"&amp;A4</f>
+        <v>BlockTypeName_FeedbackAntenna</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E18" si="2">"BlockTypeDesc_"&amp;A4</f>
-        <v>BlockTypeDesc_Research</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_FeedbackAntenna</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5" si="3">"BlockTypeName_"&amp;A5</f>
-        <v>BlockTypeName_Energy</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_TransmitterCoordination</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E6" si="4">"BlockTypeDesc_"&amp;A5</f>
-        <v>BlockTypeDesc_Energy</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_TransmitterCoordination</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A6</f>
-        <v>BlockTypeName_Arms</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_ImagingAnalysisPhotometer</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BlockTypeDesc_Arms</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_ImagingAnalysisPhotometer</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A7</f>
-        <v>BlockTypeName_Unique</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_DeflectorShieldProjector</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_Unique</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_DeflectorShieldProjector</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A8</f>
-        <v>BlockTypeName_RainbowAnalyzer</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">BlockTypeName_TrainingRoom </v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_RainbowAnalyzer</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BlockTypeDesc_TrainingRoom </v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>"BlockTypeName_"&amp;A9</f>
-        <v>BlockTypeName_ArrayScanner</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_Lounge</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_ArrayScanner</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_Lounge</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ref="D10:D19" si="5">"BlockTypeName_"&amp;A10</f>
-        <v>BlockTypeName_FeedbackAntenna</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_Cargo</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_FeedbackAntenna</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_Cargo</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_TransmitterCoordination</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_EntertainmentBar</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_TransmitterCoordination</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_EntertainmentBar</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_ImagingAnalysisPhotometer</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_PhotosyntheticTank</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_ImagingAnalysisPhotometer</v>
+        <f t="shared" si="0"/>
+        <v>BlockTypeDesc_PhotosyntheticTank</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_DeflectorShieldProjector</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_LifeSupportSystem</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_DeflectorShieldProjector</v>
+        <f>"BlockTypeDesc_"&amp;A13</f>
+        <v>BlockTypeDesc_LifeSupportSystem</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">BlockTypeName_TrainingRoom </v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_OperatingOffice</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">BlockTypeDesc_TrainingRoom </v>
+        <f>"BlockTypeDesc_"&amp;A14</f>
+        <v>BlockTypeDesc_OperatingOffice</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_Lounge</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_MainControlAnalysisRoom</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_Lounge</v>
+        <f>"BlockTypeDesc_"&amp;A15</f>
+        <v>BlockTypeDesc_MainControlAnalysisRoom</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_Cargo</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_DockingRing</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_Cargo</v>
+        <f>"BlockTypeDesc_"&amp;A16</f>
+        <v>BlockTypeDesc_DockingRing</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_EntertainmentBar</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_DismantlingRoom</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_EntertainmentBar</v>
+        <f>"BlockTypeDesc_"&amp;A17</f>
+        <v>BlockTypeDesc_DismantlingRoom</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_PhotosyntheticTank</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_ElementCapsule</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>BlockTypeDesc_PhotosyntheticTank</v>
+        <f>"BlockTypeDesc_"&amp;A18</f>
+        <v>BlockTypeDesc_ElementCapsule</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>BlockTypeName_lifeSupportSystem</v>
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_ResearchLaboratory</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>"BlockTypeDesc_"&amp;A19</f>
-        <v>BlockTypeDesc_lifeSupportSystem</v>
+        <v>BlockTypeDesc_ResearchLaboratory</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_EnergyStorageUnit</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A20</f>
+        <v>BlockTypeDesc_EnergyStorageUnit</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_ReactionTank</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A21</f>
+        <v>BlockTypeDesc_ReactionTank</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_AnnihilationReactor</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A22</f>
+        <v>BlockTypeDesc_AnnihilationReactor</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_CooledReactor</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A23</f>
+        <v>BlockTypeDesc_CooledReactor</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_OverloadEngine</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A24</f>
+        <v>BlockTypeDesc_OverloadEngine</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BlockTypeName_ResonanceBeamSplitter</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>"BlockTypeDesc_"&amp;A25</f>
+        <v>BlockTypeDesc_ResonanceBeamSplitter</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF47969-524A-4736-8744-E72E7BC823C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299883A0-0E99-4697-BE0B-3E8F2E1DEED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1110" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>BlockConfig_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -892,13 +900,13 @@
         <v>89</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -912,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -953,7 +961,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>"BlockTypeName_"&amp;A2</f>
@@ -975,7 +983,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"BlockTypeName_"&amp;A3</f>
@@ -997,7 +1005,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D25" si="1">"BlockTypeName_"&amp;A4</f>
@@ -1019,7 +1027,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1041,7 +1049,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1063,7 +1071,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1085,7 +1093,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1107,7 +1115,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1129,7 +1137,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1151,7 +1159,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1173,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1195,14 +1203,14 @@
         <v>56</v>
       </c>
       <c r="C13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_LifeSupportSystem</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A13</f>
+        <f t="shared" ref="E13:E25" si="2">"BlockTypeDesc_"&amp;A13</f>
         <v>BlockTypeDesc_LifeSupportSystem</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1217,14 +1225,14 @@
         <v>60</v>
       </c>
       <c r="C14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_OperatingOffice</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A14</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_OperatingOffice</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1239,14 +1247,14 @@
         <v>62</v>
       </c>
       <c r="C15" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_MainControlAnalysisRoom</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A15</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_MainControlAnalysisRoom</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1261,14 +1269,14 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_DockingRing</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A16</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_DockingRing</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1283,14 +1291,14 @@
         <v>66</v>
       </c>
       <c r="C17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_DismantlingRoom</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A17</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_DismantlingRoom</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1312,7 +1320,7 @@
         <v>BlockTypeName_ElementCapsule</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A18</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_ElementCapsule</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1327,14 +1335,14 @@
         <v>71</v>
       </c>
       <c r="C19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_ResearchLaboratory</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A19</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_ResearchLaboratory</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1356,7 +1364,7 @@
         <v>BlockTypeName_EnergyStorageUnit</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A20</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_EnergyStorageUnit</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1371,14 +1379,14 @@
         <v>75</v>
       </c>
       <c r="C21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_ReactionTank</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A21</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_ReactionTank</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1393,14 +1401,14 @@
         <v>77</v>
       </c>
       <c r="C22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_AnnihilationReactor</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A22</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_AnnihilationReactor</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1415,14 +1423,14 @@
         <v>79</v>
       </c>
       <c r="C23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_CooledReactor</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A23</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_CooledReactor</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1437,14 +1445,14 @@
         <v>81</v>
       </c>
       <c r="C24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_OverloadEngine</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A24</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_OverloadEngine</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1459,14 +1467,14 @@
         <v>83</v>
       </c>
       <c r="C25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BlockTypeName_ResonanceBeamSplitter</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>"BlockTypeDesc_"&amp;A25</f>
+        <f t="shared" si="2"/>
         <v>BlockTypeDesc_ResonanceBeamSplitter</v>
       </c>
       <c r="F25" s="1" t="s">

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299883A0-0E99-4697-BE0B-3E8F2E1DEED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9ABF5B-1D43-465B-A1D8-946E02FE8B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1110" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionBlock" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AreaMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaDetailDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionBlockName_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OriginArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,100;1,0,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpriteOutput/FunctionBlock/Background/FBG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2,-2,-2,-2,-2;-1,-1,-1,-1,-1;-2,-2,-2,-2,-2;-2,-2,-2,-2,-2;-2,-2,-2,-2,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵列扫描器</t>
   </si>
   <si>
@@ -379,14 +355,6 @@
   </si>
   <si>
     <t>BlockConfig_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,12 +411,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -735,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,162 +716,123 @@
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="79.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -933,32 +859,32 @@
     <col min="6" max="6" width="53.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -972,15 +898,15 @@
         <v>BlockTypeDesc_RainbowAnalyzer</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -994,15 +920,15 @@
         <v>BlockTypeDesc_ArrayScanner</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
@@ -1016,15 +942,15 @@
         <v>BlockTypeDesc_FeedbackAntenna</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -1038,15 +964,15 @@
         <v>BlockTypeDesc_TransmitterCoordination</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
@@ -1060,15 +986,15 @@
         <v>BlockTypeDesc_ImagingAnalysisPhotometer</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
@@ -1082,15 +1008,15 @@
         <v>BlockTypeDesc_DeflectorShieldProjector</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -1104,15 +1030,15 @@
         <v xml:space="preserve">BlockTypeDesc_TrainingRoom </v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
@@ -1126,15 +1052,15 @@
         <v>BlockTypeDesc_Lounge</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
@@ -1148,15 +1074,15 @@
         <v>BlockTypeDesc_Cargo</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
@@ -1170,15 +1096,15 @@
         <v>BlockTypeDesc_EntertainmentBar</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
@@ -1192,15 +1118,15 @@
         <v>BlockTypeDesc_PhotosyntheticTank</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
@@ -1214,15 +1140,15 @@
         <v>BlockTypeDesc_LifeSupportSystem</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
@@ -1236,15 +1162,15 @@
         <v>BlockTypeDesc_OperatingOffice</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
@@ -1258,15 +1184,15 @@
         <v>BlockTypeDesc_MainControlAnalysisRoom</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
@@ -1280,15 +1206,15 @@
         <v>BlockTypeDesc_DockingRing</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
@@ -1302,15 +1228,15 @@
         <v>BlockTypeDesc_DismantlingRoom</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>1</v>
@@ -1324,15 +1250,15 @@
         <v>BlockTypeDesc_ElementCapsule</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
@@ -1346,15 +1272,15 @@
         <v>BlockTypeDesc_ResearchLaboratory</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>1</v>
@@ -1368,15 +1294,15 @@
         <v>BlockTypeDesc_EnergyStorageUnit</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
@@ -1390,15 +1316,15 @@
         <v>BlockTypeDesc_ReactionTank</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
@@ -1412,15 +1338,15 @@
         <v>BlockTypeDesc_AnnihilationReactor</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
@@ -1434,15 +1360,15 @@
         <v>BlockTypeDesc_CooledReactor</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
@@ -1456,15 +1382,15 @@
         <v>BlockTypeDesc_OverloadEngine</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
@@ -1478,7 +1404,7 @@
         <v>BlockTypeDesc_ResonanceBeamSplitter</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
